--- a/API-automation/data/excel/api_cases_V3.xlsx
+++ b/API-automation/data/excel/api_cases_V3.xlsx
@@ -1359,7 +1359,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言成功</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言成功</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言成功</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言成功</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言失败</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>【通过】- 执行通过.</t>
+          <t>断言失败</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
